--- a/pred_ohlcv/54_21/2020-01-12 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PCM ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-1623542.634581411</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1589942.634581411</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1282509.545081411</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1285236.811681411</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1297479.811681411</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1283590.811681411</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1316890.904267314</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-3557761.138567314</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3557055.138567314</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3574039.138567314</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3574039.138567314</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3530032.609667315</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3511781.609667315</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3489440.609667315</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3505668.609667315</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3478015.609667315</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3513031.943067315</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3501755.943067315</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3800723.713897773</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3801586.713897773</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3781634.713897773</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3738071.112197773</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-4562367.601397772</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-4537949.861897772</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4539681.861897772</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-4536886.861897772</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-4450802.699297772</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-4490843.984297772</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-4506641.205673512</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-4523941.205673512</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-4500934.205673512</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-4471476.205673512</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-4462013.205673512</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PCM ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-1623542.634581411</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1589942.634581411</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1260537.804281411</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1282509.545081411</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1285236.811681411</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1297479.811681411</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1283590.811681411</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1316890.904267314</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1381216.791667314</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1315960.791667314</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1333043.791667314</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1367270.791667314</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1424487.258467314</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2040352.258467314</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2027599.258467314</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-3527165.138567314</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3560356.138567314</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3530032.609667315</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3511781.609667315</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3489440.609667315</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3505668.609667315</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3478015.609667315</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3513031.943067315</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3501755.943067315</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3800723.713897773</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3801586.713897773</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3781634.713897773</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3738071.112197773</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-4523213.861897772</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-4540637.861897772</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-4517568.861897772</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-4539681.861897772</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4539681.861897772</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-4562053.861897772</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-4536886.861897772</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-4450802.699297772</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-4490899.984297772</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-4490843.984297772</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-4480738.321197772</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-4502350.321197772</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-4506641.205673512</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-4523941.205673512</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-4500934.205673512</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-4471476.205673512</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-4462013.205673512</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
